--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N2">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O2">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P2">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q2">
-        <v>492.5118956756941</v>
+        <v>560.0060841219911</v>
       </c>
       <c r="R2">
-        <v>492.5118956756941</v>
+        <v>5040.05475709792</v>
       </c>
       <c r="S2">
-        <v>0.0108618119773309</v>
+        <v>0.009495649089010134</v>
       </c>
       <c r="T2">
-        <v>0.0108618119773309</v>
+        <v>0.00983369158326681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N3">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P3">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q3">
-        <v>754.176214865011</v>
+        <v>844.984867081781</v>
       </c>
       <c r="R3">
-        <v>754.176214865011</v>
+        <v>7604.86380373603</v>
       </c>
       <c r="S3">
-        <v>0.01663253276837173</v>
+        <v>0.01432784394818217</v>
       </c>
       <c r="T3">
-        <v>0.01663253276837173</v>
+        <v>0.01483791124954964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N4">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O4">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P4">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q4">
-        <v>2970.431276217414</v>
+        <v>3984.540836072296</v>
       </c>
       <c r="R4">
-        <v>2970.431276217414</v>
+        <v>35860.86752465067</v>
       </c>
       <c r="S4">
-        <v>0.06550961773134872</v>
+        <v>0.06756319731685535</v>
       </c>
       <c r="T4">
-        <v>0.06550961773134872</v>
+        <v>0.0699684285471647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N5">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O5">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P5">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q5">
-        <v>2435.446108000423</v>
+        <v>3007.175937115459</v>
       </c>
       <c r="R5">
-        <v>2435.446108000423</v>
+        <v>27064.58343403913</v>
       </c>
       <c r="S5">
-        <v>0.05371110411400449</v>
+        <v>0.05099067359693756</v>
       </c>
       <c r="T5">
-        <v>0.05371110411400449</v>
+        <v>0.05280592754376739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N6">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O6">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P6">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q6">
-        <v>532.0489182463288</v>
+        <v>567.5312221296285</v>
       </c>
       <c r="R6">
-        <v>532.0489182463288</v>
+        <v>3405.187332777771</v>
       </c>
       <c r="S6">
-        <v>0.01173375783097684</v>
+        <v>0.009623247827475504</v>
       </c>
       <c r="T6">
-        <v>0.01173375783097684</v>
+        <v>0.006643888534469935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N7">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O7">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P7">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q7">
-        <v>138.7213473152935</v>
+        <v>167.0355377140782</v>
       </c>
       <c r="R7">
-        <v>138.7213473152935</v>
+        <v>1503.319839426704</v>
       </c>
       <c r="S7">
-        <v>0.00305934781476405</v>
+        <v>0.002832310034655781</v>
       </c>
       <c r="T7">
-        <v>0.00305934781476405</v>
+        <v>0.002933139492405157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N8">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P8">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q8">
-        <v>212.4219568254089</v>
+        <v>252.0374432262737</v>
       </c>
       <c r="R8">
-        <v>212.4219568254089</v>
+        <v>2268.336989036464</v>
       </c>
       <c r="S8">
-        <v>0.004684734267644129</v>
+        <v>0.004273630565854111</v>
       </c>
       <c r="T8">
-        <v>0.004684734267644129</v>
+        <v>0.004425770637846124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N9">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O9">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P9">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q9">
-        <v>836.6543678687067</v>
+        <v>1188.486946781196</v>
       </c>
       <c r="R9">
-        <v>836.6543678687067</v>
+        <v>10696.38252103077</v>
       </c>
       <c r="S9">
-        <v>0.01845149835687718</v>
+        <v>0.02015237925708837</v>
       </c>
       <c r="T9">
-        <v>0.01845149835687718</v>
+        <v>0.02086979841247365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N10">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O10">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P10">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q10">
-        <v>685.9699600800516</v>
+        <v>896.9639150339947</v>
       </c>
       <c r="R10">
-        <v>685.9699600800516</v>
+        <v>8072.675235305952</v>
       </c>
       <c r="S10">
-        <v>0.01512831830846358</v>
+        <v>0.01520921794273243</v>
       </c>
       <c r="T10">
-        <v>0.01512831830846358</v>
+        <v>0.01575066191574161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N11">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O11">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P11">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q11">
-        <v>149.8573809583166</v>
+        <v>169.2800945307226</v>
       </c>
       <c r="R11">
-        <v>149.8573809583166</v>
+        <v>1015.680567184336</v>
       </c>
       <c r="S11">
-        <v>0.003304940874882532</v>
+        <v>0.002870369485250175</v>
       </c>
       <c r="T11">
-        <v>0.003304940874882532</v>
+        <v>0.001981702565977542</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N12">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O12">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P12">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q12">
-        <v>1046.83854629389</v>
+        <v>1365.686311425367</v>
       </c>
       <c r="R12">
-        <v>1046.83854629389</v>
+        <v>12291.1768028283</v>
       </c>
       <c r="S12">
-        <v>0.02308688086582553</v>
+        <v>0.02315703051564515</v>
       </c>
       <c r="T12">
-        <v>0.02308688086582553</v>
+        <v>0.02398141442892039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N13">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P13">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q13">
-        <v>1603.008453908658</v>
+        <v>2060.663801795033</v>
       </c>
       <c r="R13">
-        <v>1603.008453908658</v>
+        <v>18545.9742161553</v>
       </c>
       <c r="S13">
-        <v>0.03535260077432284</v>
+        <v>0.0349412995806107</v>
       </c>
       <c r="T13">
-        <v>0.03535260077432284</v>
+        <v>0.03618520022943203</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H14">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I14">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J14">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N14">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O14">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P14">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q14">
-        <v>6313.678890527559</v>
+        <v>9717.09599489623</v>
       </c>
       <c r="R14">
-        <v>6313.678890527559</v>
+        <v>87453.86395406608</v>
       </c>
       <c r="S14">
-        <v>0.1392412926393768</v>
+        <v>0.1647663058454565</v>
       </c>
       <c r="T14">
-        <v>0.1392412926393768</v>
+        <v>0.1706319409879681</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H15">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I15">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J15">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N15">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O15">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P15">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q15">
-        <v>5176.563014337961</v>
+        <v>7333.5971336906</v>
       </c>
       <c r="R15">
-        <v>5176.563014337961</v>
+        <v>66002.3742032154</v>
       </c>
       <c r="S15">
-        <v>0.1141634438563249</v>
+        <v>0.1243509078135779</v>
       </c>
       <c r="T15">
-        <v>0.1141634438563249</v>
+        <v>0.1287777659089381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H16">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I16">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J16">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N16">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O16">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P16">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q16">
-        <v>1130.874849977173</v>
+        <v>1384.03785841745</v>
       </c>
       <c r="R16">
-        <v>1130.874849977173</v>
+        <v>8304.227150504699</v>
       </c>
       <c r="S16">
-        <v>0.02494020976588269</v>
+        <v>0.02346820543930784</v>
       </c>
       <c r="T16">
-        <v>0.02494020976588269</v>
+        <v>0.01620244472948437</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H17">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I17">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J17">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N17">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O17">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P17">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q17">
-        <v>1318.488005757564</v>
+        <v>1441.649052940935</v>
       </c>
       <c r="R17">
-        <v>1318.488005757564</v>
+        <v>12974.84147646842</v>
       </c>
       <c r="S17">
-        <v>0.02907781302065189</v>
+        <v>0.0244450799810397</v>
       </c>
       <c r="T17">
-        <v>0.02907781302065189</v>
+        <v>0.02531531810079692</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H18">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I18">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J18">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N18">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O18">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P18">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q18">
-        <v>2018.981271839014</v>
+        <v>2175.282854806461</v>
       </c>
       <c r="R18">
-        <v>2018.981271839014</v>
+        <v>19577.54569325815</v>
       </c>
       <c r="S18">
-        <v>0.04452642698179207</v>
+        <v>0.0368848182979432</v>
       </c>
       <c r="T18">
-        <v>0.04452642698179207</v>
+        <v>0.03819790767822281</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H19">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I19">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J19">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N19">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O19">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P19">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q19">
-        <v>7952.047542418529</v>
+        <v>10257.58413274091</v>
       </c>
       <c r="R19">
-        <v>7952.047542418529</v>
+        <v>92318.25719466823</v>
       </c>
       <c r="S19">
-        <v>0.1753737239626413</v>
+        <v>0.1739310021572694</v>
       </c>
       <c r="T19">
-        <v>0.1753737239626413</v>
+        <v>0.1801228979662516</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H20">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I20">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J20">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N20">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O20">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P20">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q20">
-        <v>6519.855683205521</v>
+        <v>7741.509359789162</v>
       </c>
       <c r="R20">
-        <v>6519.855683205521</v>
+        <v>69673.58423810246</v>
       </c>
       <c r="S20">
-        <v>0.1437882966322139</v>
+        <v>0.1312676029495278</v>
       </c>
       <c r="T20">
-        <v>0.1437882966322139</v>
+        <v>0.1359406934881735</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H21">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I21">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J21">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N21">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O21">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P21">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q21">
-        <v>1424.331317361704</v>
+        <v>1461.021356902542</v>
       </c>
       <c r="R21">
-        <v>1424.331317361704</v>
+        <v>8766.128141415255</v>
       </c>
       <c r="S21">
-        <v>0.03141207166454711</v>
+        <v>0.02477356319877736</v>
       </c>
       <c r="T21">
-        <v>0.03141207166454711</v>
+        <v>0.01710366348712245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H22">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I22">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J22">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N22">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O22">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P22">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q22">
-        <v>111.7743782921332</v>
+        <v>149.858738705065</v>
       </c>
       <c r="R22">
-        <v>111.7743782921332</v>
+        <v>899.1524322303901</v>
       </c>
       <c r="S22">
-        <v>0.00246506184226592</v>
+        <v>0.002541054527820045</v>
       </c>
       <c r="T22">
-        <v>0.00246506184226592</v>
+        <v>0.001754343579788628</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H23">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I23">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J23">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N23">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O23">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P23">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q23">
-        <v>171.1584598857254</v>
+        <v>226.119626189915</v>
       </c>
       <c r="R23">
-        <v>171.1584598857254</v>
+        <v>1356.71775713949</v>
       </c>
       <c r="S23">
-        <v>0.003774712907304972</v>
+        <v>0.003834159455256642</v>
       </c>
       <c r="T23">
-        <v>0.003774712907304972</v>
+        <v>0.002647102984439266</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H24">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I24">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J24">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N24">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O24">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P24">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q24">
-        <v>674.1321622358013</v>
+        <v>1066.271029802855</v>
       </c>
       <c r="R24">
-        <v>674.1321622358013</v>
+        <v>6397.626178817129</v>
       </c>
       <c r="S24">
-        <v>0.01486724860529733</v>
+        <v>0.01808004559211141</v>
       </c>
       <c r="T24">
-        <v>0.01486724860529733</v>
+        <v>0.01248246015956908</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H25">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I25">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J25">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N25">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O25">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P25">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q25">
-        <v>552.7185779183545</v>
+        <v>804.7262445494702</v>
       </c>
       <c r="R25">
-        <v>552.7185779183545</v>
+        <v>4828.357467296821</v>
       </c>
       <c r="S25">
-        <v>0.01218960460130703</v>
+        <v>0.01364520537832966</v>
       </c>
       <c r="T25">
-        <v>0.01218960460130703</v>
+        <v>0.009420647289653588</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H26">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I26">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J26">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N26">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O26">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P26">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q26">
-        <v>120.747209519472</v>
+        <v>151.8724805596275</v>
       </c>
       <c r="R26">
-        <v>120.747209519472</v>
+        <v>607.48992223851</v>
       </c>
       <c r="S26">
-        <v>0.002662947835581812</v>
+        <v>0.002575200203284907</v>
       </c>
       <c r="T26">
-        <v>0.002662947835581812</v>
+        <v>0.001185278498576475</v>
       </c>
     </row>
   </sheetData>
